--- a/Codigos/WMT.xlsx
+++ b/Codigos/WMT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{14C5B05A-B62C-764F-A242-8AFAECE293C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11FB2507-B158-6643-9D7D-71A894A04CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="1"/>
   </bookViews>
@@ -2680,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Codigos/WMT.xlsx
+++ b/Codigos/WMT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11FB2507-B158-6643-9D7D-71A894A04CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89CD928-4767-8A40-B815-E03AA85322A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="1"/>
+    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
-    <sheet name="WMT" sheetId="1" r:id="rId2"/>
+    <sheet name="Diagramm2" sheetId="3" r:id="rId2"/>
+    <sheet name="WMT" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -86,17 +87,57 @@
   <si>
     <t>Historica</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Valor Esperado</t>
+  </si>
+  <si>
+    <t>Valor Esperado 2</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Desva Estad</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>ISH</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;COP&quot;_-;\-* #,##0\ &quot;COP&quot;_-;_-* &quot;-&quot;\ &quot;COP&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.0000000\ _C_O_P_-;\-* #,##0.0000000\ _C_O_P_-;_-* &quot;-&quot;???????\ _C_O_P_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000000\ _C_O_P_-;\-* #,##0.0000000\ _C_O_P_-;_-* &quot;-&quot;???????\ _C_O_P_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000%"/>
+    <numFmt numFmtId="172" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -234,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +455,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -531,7 +584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -575,18 +628,32 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -620,6 +687,7 @@
     <cellStyle name="Gut" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="44" builtinId="5"/>
     <cellStyle name="Schlecht" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift" xfId="2" builtinId="15" customBuiltin="1"/>
@@ -628,6 +696,7 @@
     <cellStyle name="Überschrift 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Verknüpfte Zelle" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="43" builtinId="7"/>
     <cellStyle name="Warnender Text" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
@@ -1616,7 +1685,1023 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>WMT!$B$2:$B$254</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="253"/>
+                <c:pt idx="0">
+                  <c:v>112.050003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.019997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.910004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.83000199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.989998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.41999800000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.720001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.08000199999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114.260002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.639999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115.910004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.44000200000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.730003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116.33000199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.050003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116.019997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.91999800000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.510002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.160004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>117.110001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>116.980003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117.620003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118.400002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118.470001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>118.300003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118.449997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>117.849998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116.120003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116.30999799999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>118.160004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>117.230003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>117.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.93</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>119.610001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120.239998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>119.16999800000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119.529999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>119.41999800000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119.839996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119.139999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.739998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>119.349998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>119.099998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>119.040001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119.220001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.150002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>118.099998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>117.260002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>117.620003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>117.57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>118.860001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>120.230003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>119.44000200000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>119.040001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.120003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120.980003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120.650002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>118.870003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>119.889999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>119.129997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>119.860001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>119.360001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>118.91999800000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>119.19000200000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>118.760002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>119.089996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>119.279999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>118.66999800000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>118.69000200000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>118.660004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>119.779999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>119.360001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>119.139999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>119.760002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>120.290001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>120.540001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>121.279999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>119.860001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>120.08000199999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>120.290001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>119.029999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>119.510002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>119.519997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>119.589996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>119.400002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>118.839996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>118.94000200000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>117.889999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>117.650002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>116.55999799999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>116.160004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>117.360001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>116.379997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>115.879997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>116.18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>115.279999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115.900002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114.959999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115.589996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116.099998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>115.80999799999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>114.370003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>115.860001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>116.599998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115.889999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.489998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114.269997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115.269997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116.80999799999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>116.30999799999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>116.449997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>115.25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>115.400002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>115.849998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>117.44000200000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>117.889999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>119.629997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>117.68</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>117.69000200000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>118.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>116.32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>114.389999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>113.779999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>110.400002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>107.68</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>115.879997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>112.910004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>116.769997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>115.91999800000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>117.230003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>117.160004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>119.790001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>114.43</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>104.050003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>114.099998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>106.760002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>119.260002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>122.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>119.449997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>113.970001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>114.279999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>115.029999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>109.400002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>109.82</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>109.58000199999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>115.19000200000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>113.620003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>114.139999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>118.650002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>119.480003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>126.07</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>121.989998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>121.839996</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>121.800003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>125.300003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>128.759995</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>132.33000200000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>132.11999499999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>129.85000600000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>129.21000699999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>131.58999600000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>128.529999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>129.44000199999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>128.300003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>123.599998</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>121.550003</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>122.91999800000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>123.699997</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>124.730003</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>123.300003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>121.889999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>122.94000200000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>123.66999800000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>123.779999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>123.709999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>123.41999800000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>125.94000200000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>127.660004</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>124.949997</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>125.449997</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>124.989998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>124.33000199999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>123.860001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>122.480003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>123.69000200000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>124.05999799999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>123.959999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>123.94000200000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>123.470001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>122.110001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>121.55999799999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>121.239998</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>121.349998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>121.160004</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>120.089996</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>117.739998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>118.08000199999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>119.650002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>119.029999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>117.989998</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>119.849998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>121.68</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>121.07</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>120.300003</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>119.709999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>118.32</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>119.05999799999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>119.779999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>119.69000200000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>119.209999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>118.889999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>126.949997</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>124.44000200000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>127.75</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>130.679993</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>129.520004</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>132.009995</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>132.199997</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>131.740005</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>131.470001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>132.33000200000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>132.66000399999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>131.63999899999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>131.240005</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>131.21000699999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>131.759995</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>130.69000199999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>130.11999499999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>129.39999399999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>129.300003</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>131.63999899999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>129.80999800000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>129.35000600000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>129.970001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>131.88000500000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>130.199997</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>131.88999899999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>131.85000600000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>132.60000600000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>135.60000600000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>134.71000699999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>132.41000399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15D1-744D-860F-1E2F1BFA8C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1886312287"/>
+        <c:axId val="1886253759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1886312287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886253759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886253759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886312287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2172,8 +3257,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EEFC439B-3EC3-1E4F-A8CB-54057786E398}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
@@ -2218,6 +3830,39 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663983" cy="6231610"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A770CDF-45A8-1F46-9496-22F437822596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2226,8 +3871,8 @@
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="500857" cy="181332"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Textfeld 2">
@@ -2269,6 +3914,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2315,7 +3961,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="Textfeld 2">
@@ -2677,11 +4323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K17" sqref="K16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2689,9 +4335,14 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2711,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>43697</v>
       </c>
@@ -2731,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>43698</v>
       </c>
@@ -2773,7 +4424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>43699</v>
       </c>
@@ -2820,7 +4471,7 @@
         <v>0.29084403906527917</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>43700</v>
       </c>
@@ -2867,7 +4518,7 @@
         <v>0.2116236525001475</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>43703</v>
       </c>
@@ -2901,7 +4552,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>43704</v>
       </c>
@@ -2928,8 +4579,26 @@
         <f t="shared" si="3"/>
         <v>4.6200223430486762E-11</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10">
+        <f>+(1+N7)^(1/252)-1</f>
+        <v>3.5698287639274184E-6</v>
+      </c>
+      <c r="L7" s="11">
+        <f>+(1+N7)^(1/52)-1</f>
+        <v>1.7300058160252263E-5</v>
+      </c>
+      <c r="M7" s="9">
+        <f>+(1+N7)^(1/12)-1</f>
+        <v>7.4969080277487166E-5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>43705</v>
       </c>
@@ -2963,7 +4632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>43706</v>
       </c>
@@ -2993,8 +4662,28 @@
       <c r="J9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="K9">
+        <f>+EXP(L4)</f>
+        <v>1.0419891790184939</v>
+      </c>
+      <c r="L9">
+        <f>+EXP(L5)</f>
+        <v>1.0303804510044059</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>43707</v>
       </c>
@@ -3024,8 +4713,16 @@
       <c r="J10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="K10">
+        <f>+EXP(-L4)</f>
+        <v>0.95970286461319509</v>
+      </c>
+      <c r="L10">
+        <f>+EXP(-L5)</f>
+        <v>0.9705153072587982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>43711</v>
       </c>
@@ -3053,7 +4750,7 @@
         <v>4.2576074900434815E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>43712</v>
       </c>
@@ -3080,8 +4777,27 @@
         <f t="shared" si="3"/>
         <v>4.934712485207819E-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <f>+((1+L7)-K10)/(K9-K10)</f>
+        <v>0.48992880208970863</v>
+      </c>
+      <c r="L12">
+        <f>+((1+L7)-L10)/(L9-L10)</f>
+        <v>0.49280751625233699</v>
+      </c>
+      <c r="S12">
+        <f>+R13*K9</f>
+        <v>149.7995212178233</v>
+      </c>
+      <c r="X12">
+        <f>+W13*L9</f>
+        <v>144.84837583370705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>43713</v>
       </c>
@@ -3108,8 +4824,27 @@
         <f t="shared" si="3"/>
         <v>7.0649719626685457E-11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f>1-K12</f>
+        <v>0.51007119791029143</v>
+      </c>
+      <c r="L13">
+        <f>1-L12</f>
+        <v>0.50719248374766301</v>
+      </c>
+      <c r="R13">
+        <f>+Q14*K9</f>
+        <v>143.76302963043014</v>
+      </c>
+      <c r="W13">
+        <f>+V14*L9</f>
+        <v>140.57756597818806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>43714</v>
       </c>
@@ -3136,8 +4871,24 @@
         <f t="shared" si="3"/>
         <v>1.7145337377612029E-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="Q14">
+        <f>+P15*K9</f>
+        <v>137.96979136179547</v>
+      </c>
+      <c r="S14">
+        <f>+Q14</f>
+        <v>137.96979136179547</v>
+      </c>
+      <c r="V14">
+        <f>+U15*L9</f>
+        <v>136.43267963901516</v>
+      </c>
+      <c r="X14">
+        <f>+V14</f>
+        <v>136.43267963901516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>43717</v>
       </c>
@@ -3164,8 +4915,43 @@
         <f t="shared" si="3"/>
         <v>9.0950565619029675E-10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="9">
+        <f>+AVERAGE(C3:C254)</f>
+        <v>6.6253163706414975E-4</v>
+      </c>
+      <c r="L15" s="9">
+        <f>+K15*5</f>
+        <v>3.3126581853207488E-3</v>
+      </c>
+      <c r="M15" s="9">
+        <f>+K15*20</f>
+        <v>1.3250632741282995E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <f>+K15*250</f>
+        <v>0.16563290926603744</v>
+      </c>
+      <c r="P15" s="2">
+        <f>+B254</f>
+        <v>132.41000399999999</v>
+      </c>
+      <c r="R15" s="2">
+        <f>+P15</f>
+        <v>132.41000399999999</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+P15</f>
+        <v>132.41000399999999</v>
+      </c>
+      <c r="W15" s="2">
+        <f>+U15</f>
+        <v>132.41000399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>43718</v>
       </c>
@@ -3192,8 +4978,43 @@
         <f t="shared" si="3"/>
         <v>2.8986375743880568E-11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <f>+(K15-K7)/K4</f>
+        <v>3.5823670514083375E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:N16" si="5">+(L15-L7)/L4</f>
+        <v>8.0117511971094152E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.16016489716055482</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0.566396030654297</v>
+      </c>
+      <c r="Q16">
+        <f>+P15*K10</f>
+        <v>127.07426014224461</v>
+      </c>
+      <c r="S16">
+        <f>+Q16</f>
+        <v>127.07426014224461</v>
+      </c>
+      <c r="V16">
+        <f>+U15*L10</f>
+        <v>128.50593571619868</v>
+      </c>
+      <c r="X16">
+        <f>+V16</f>
+        <v>128.50593571619868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>43719</v>
       </c>
@@ -3220,8 +5041,35 @@
         <f t="shared" si="3"/>
         <v>3.5134409191125594E-13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <f>+(K15-K7)/K5</f>
+        <v>4.9234104521716886E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:N17" si="6">+(L15-L7)/L5</f>
+        <v>0.11010915134600864</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0.22012192425711186</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.77842390167574771</v>
+      </c>
+      <c r="R17">
+        <f>+Q16*K10</f>
+        <v>121.95353147711451</v>
+      </c>
+      <c r="W17">
+        <f>+V16*L10</f>
+        <v>124.71697768618593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>43720</v>
       </c>
@@ -3248,8 +5096,16 @@
         <f t="shared" si="3"/>
         <v>3.3024254457415874E-10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="S18">
+        <f>+R17*K10</f>
+        <v>117.03915350828225</v>
+      </c>
+      <c r="X18">
+        <f>+W17*L10</f>
+        <v>121.03973591949742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>43721</v>
       </c>
@@ -3277,7 +5133,7 @@
         <v>1.1028652569218545E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>43724</v>
       </c>
@@ -3305,7 +5161,7 @@
         <v>1.5621262353166126E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>43725</v>
       </c>
@@ -3332,8 +5188,32 @@
         <f t="shared" si="3"/>
         <v>4.232986560803112E-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>43726</v>
       </c>
@@ -3361,7 +5241,7 @@
         <v>2.1016582896889656E-10</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>43727</v>
       </c>
@@ -3388,8 +5268,38 @@
         <f t="shared" si="3"/>
         <v>1.3024815348119595E-12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <f>+Q14*K12+Q16*K13</f>
+        <v>132.41229470077019</v>
+      </c>
+      <c r="R23">
+        <f>+R13*K12^2+2*R15*K12*K13+R17*K13^2</f>
+        <v>132.41458544116966</v>
+      </c>
+      <c r="S23">
+        <f>+S12*K12^3+3*S14*K12^2*K13+3*S16*K12*K13^2+S18*K13^3</f>
+        <v>132.41687622119906</v>
+      </c>
+      <c r="U23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23">
+        <f>+V14*L12+V16*L13</f>
+        <v>132.41229470077019</v>
+      </c>
+      <c r="W23">
+        <f>+W13*L12^2+2*W15*L12*L13+W17*L13^2</f>
+        <v>132.41458544116963</v>
+      </c>
+      <c r="X23">
+        <f>+X12*L12^3+3*X14*L12^2*L13+3*X16*L12*L13^2+X18*L13^3</f>
+        <v>132.41687622119903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>43728</v>
       </c>
@@ -3416,8 +5326,38 @@
         <f t="shared" si="3"/>
         <v>9.2810454733581137E-12</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <f>+Q14^2*K12+Q16^2*K13</f>
+        <v>17562.681897159055</v>
+      </c>
+      <c r="R24">
+        <f>+R13^2*K12^2+2*R15^2*K12*K13+R17^2*K13^2</f>
+        <v>17593.006906157854</v>
+      </c>
+      <c r="S24">
+        <f>+S12^2*K12^3+3*S14^2*K12^2*K13+3*S16^2*K12*K13^2+S18^2*K13^3</f>
+        <v>17623.384276531535</v>
+      </c>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24">
+        <f>+V14^2*L12+V16^2*L13</f>
+        <v>17548.720854748557</v>
+      </c>
+      <c r="W24">
+        <f>+W13^2*L12^2+2*W15^2*L12*L13+W17^2*L13^2</f>
+        <v>17565.047726192446</v>
+      </c>
+      <c r="X24">
+        <f>+X12^2*L12^3+3*X14^2*L12^2*L13+3*X16^2*L12*L13^2+X18^2*L13^3</f>
+        <v>17581.389787731008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>43731</v>
       </c>
@@ -3444,8 +5384,38 @@
         <f t="shared" si="3"/>
         <v>2.3576083849029549E-10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <f>+Q24-Q23^2</f>
+        <v>29.666109235440672</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:S25" si="7">+R24-R23^2</f>
+        <v>59.384468601034314</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>89.15516835118251</v>
+      </c>
+      <c r="U25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25">
+        <f>+V24-V23^2</f>
+        <v>15.70506682494306</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25" si="8">+W24-W23^2</f>
+        <v>31.425288635633478</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25" si="9">+X24-X23^2</f>
+        <v>47.16067955066319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>43732</v>
       </c>
@@ -3472,8 +5442,38 @@
         <f t="shared" si="3"/>
         <v>3.6419637662834523E-10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <f>+SQRT(Q25)</f>
+        <v>5.4466603745268234</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26:S26" si="10">+SQRT(R25)</f>
+        <v>7.7061318831846055</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="10"/>
+        <v>9.4422014568204649</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26">
+        <f>+SQRT(V25)</f>
+        <v>3.9629618752825593</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26" si="11">+SQRT(W25)</f>
+        <v>5.605826311582752</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26" si="12">+SQRT(X25)</f>
+        <v>6.8673633623584527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>43733</v>
       </c>
@@ -3500,8 +5500,38 @@
         <f t="shared" si="3"/>
         <v>3.0653633288828723E-12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>+Q23+Q26</f>
+        <v>137.85895507529702</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" ref="R27:S27" si="13">+R23+R26</f>
+        <v>140.12071732435427</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="13"/>
+        <v>141.85907767801953</v>
+      </c>
+      <c r="U27" t="s">
+        <v>25</v>
+      </c>
+      <c r="V27" s="14">
+        <f>+V23+V26</f>
+        <v>136.37525657605275</v>
+      </c>
+      <c r="W27" s="14">
+        <f t="shared" ref="W27:X27" si="14">+W23+W26</f>
+        <v>138.02041175275238</v>
+      </c>
+      <c r="X27" s="14">
+        <f t="shared" si="14"/>
+        <v>139.28423958355748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>43734</v>
       </c>
@@ -3528,8 +5558,38 @@
         <f t="shared" si="3"/>
         <v>1.9047114691568667E-11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="13">
+        <f>+Q23-Q26</f>
+        <v>126.96563432624336</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" ref="R28:S28" si="15">+R23-R26</f>
+        <v>124.70845355798505</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="15"/>
+        <v>122.97467476437859</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="13">
+        <f>+V23-V26</f>
+        <v>128.44933282548763</v>
+      </c>
+      <c r="W28" s="13">
+        <f t="shared" ref="W28:X28" si="16">+W23-W26</f>
+        <v>126.80875912958689</v>
+      </c>
+      <c r="X28" s="13">
+        <f t="shared" si="16"/>
+        <v>125.54951285884059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>43735</v>
       </c>
@@ -3557,7 +5617,7 @@
         <v>1.5611300951213634E-11</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>43738</v>
       </c>
@@ -3584,8 +5644,40 @@
         <f t="shared" si="3"/>
         <v>3.8516060320324729E-11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="P30" s="15">
+        <f>+P15*10*3700</f>
+        <v>4899170.1479999991</v>
+      </c>
+      <c r="Q30" s="15">
+        <f>+Q28*10*3700</f>
+        <v>4697728.4700710047</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" ref="R30:S30" si="17">+R28*10*3700</f>
+        <v>4614212.781645447</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="17"/>
+        <v>4550062.9662820082</v>
+      </c>
+      <c r="U30" s="15">
+        <f>+U15*10*3700</f>
+        <v>4899170.1479999991</v>
+      </c>
+      <c r="V30" s="15">
+        <f>+V28*10*3700</f>
+        <v>4752625.3145430423</v>
+      </c>
+      <c r="W30" s="15">
+        <f>+W28*10*3700</f>
+        <v>4691924.0877947146</v>
+      </c>
+      <c r="X30" s="15">
+        <f>+X28*10*3700</f>
+        <v>4645331.9757771017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>43739</v>
       </c>
@@ -3612,8 +5704,32 @@
         <f t="shared" si="3"/>
         <v>5.3065634012654895E-10</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="Q31" s="16">
+        <f>+Q30-P30</f>
+        <v>-201441.67792899441</v>
+      </c>
+      <c r="R31" s="16">
+        <f>+R30-P30</f>
+        <v>-284957.3663545521</v>
+      </c>
+      <c r="S31" s="16">
+        <f>+S30-P30</f>
+        <v>-349107.1817179909</v>
+      </c>
+      <c r="V31" s="17">
+        <f>+V30-U30</f>
+        <v>-146544.83345695678</v>
+      </c>
+      <c r="W31" s="17">
+        <f>+W30-U30</f>
+        <v>-207246.06020528451</v>
+      </c>
+      <c r="X31" s="17">
+        <f>+X30-U30</f>
+        <v>-253838.17222289741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>43740</v>
       </c>
@@ -4629,11 +6745,11 @@
         <v>119.860001</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ref="C68:C131" si="5">+LN(B68/B67)</f>
+        <f t="shared" ref="C68:C131" si="18">+LN(B68/B67)</f>
         <v>6.1090947444101731E-3</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ref="D68:D131" si="6">+C68^2</f>
+        <f t="shared" ref="D68:D131" si="19">+C68^2</f>
         <v>3.7321038596180001E-5</v>
       </c>
       <c r="E68" s="2">
@@ -4641,11 +6757,11 @@
         <v>187</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ref="F68:F131" si="7">+$K$6^(E68-1)</f>
+        <f t="shared" ref="F68:F131" si="20">+$K$6^(E68-1)</f>
         <v>7.1877106166902651E-5</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G131" si="8">+F68*D68</f>
+        <f t="shared" ref="G68:G131" si="21">+F68*D68</f>
         <v>2.6825282534367015E-9</v>
       </c>
     </row>
@@ -4657,23 +6773,23 @@
         <v>119.360001</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.1802585396393038E-3</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.7474561458227325E-5</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69:E132" si="9">+E68-1</f>
+        <f t="shared" ref="E69:E132" si="22">+E68-1</f>
         <v>186</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.5660111754634359E-5</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.3221272727927058E-9</v>
       </c>
     </row>
@@ -4685,23 +6801,23 @@
         <v>118.91999800000001</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.6931635215988233E-3</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3639456797268222E-5</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>185</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.9642222899615128E-5</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.0862766584777063E-9</v>
       </c>
     </row>
@@ -4713,23 +6829,23 @@
         <v>119.19000200000001</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.2678939626804831E-3</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.1433430259625844E-6</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>184</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.3833918841700136E-5</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.3118660181357172E-10</v>
       </c>
     </row>
@@ -4741,23 +6857,23 @@
         <v>118.760002</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.6142085383023331E-3</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3062503358337487E-5</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>183</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.8246230359684339E-5</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.1527166804340002E-9</v>
       </c>
     </row>
@@ -4769,23 +6885,23 @@
         <v>119.089996</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.7748094556151472E-3</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.6995675149712305E-6</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>182</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.2890768799667753E-5</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>7.1521874589062498E-10</v>
       </c>
     </row>
@@ -4797,23 +6913,23 @@
         <v>119.279999</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.5941858809866223E-3</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.5414286231370932E-6</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>181</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.7779756631229188E-5</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.4850027226598486E-10</v>
       </c>
     </row>
@@ -4825,23 +6941,23 @@
         <v>118.66999800000001</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5.1271472492593279E-3</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.6287638915587494E-5</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>180</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.029260596118202E-4</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.705683090079763E-9</v>
       </c>
     </row>
@@ -4853,23 +6969,23 @@
         <v>118.69000200000001</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.6855409544456565E-4</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.8410483091135745E-8</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>179</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.0834322064402127E-4</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.0780832381461557E-12</v>
       </c>
     </row>
@@ -4881,23 +6997,23 @@
         <v>118.660004</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.5277437877746484E-4</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.389488656633327E-8</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>178</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.1404549541475923E-4</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>7.2869239929273227E-12</v>
       </c>
     </row>
@@ -4909,23 +7025,23 @@
         <v>119.779999</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.3944239474216366E-3</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>8.8255201303889127E-5</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>177</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.2004788991027288E-4</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.0594850690138254E-8</v>
       </c>
     </row>
@@ -4937,23 +7053,23 @@
         <v>119.360001</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.5125736542104273E-3</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.2338173676253195E-5</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>176</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.2636619990555041E-4</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.559128121242811E-9</v>
       </c>
     </row>
@@ -4965,23 +7081,23 @@
         <v>119.139999</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.8448810264120586E-3</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.4035860016152109E-6</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>175</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.3301705253215831E-4</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.5273497797456917E-10</v>
       </c>
     </row>
@@ -4993,23 +7109,23 @@
         <v>119</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.1757706955253259E-3</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3824367284561087E-6</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>174</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.4001795003385086E-4</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.935659567699277E-10</v>
       </c>
     </row>
@@ -5021,23 +7137,23 @@
         <v>119.760002</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.3662636999101173E-3</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.0529313496793254E-5</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>173</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.4738731582510616E-4</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.9735067285266049E-9</v>
       </c>
     </row>
@@ -5049,23 +7165,23 @@
         <v>120.290001</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.4157455077846229E-3</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.9498808389520077E-5</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>172</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.5514454297379596E-4</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.0251337161257109E-9</v>
       </c>
     </row>
@@ -5077,23 +7193,23 @@
         <v>120.540001</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.0761540316751544E-3</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.3104155632409979E-6</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>171</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.6331004523557473E-4</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>7.0393416061701272E-10</v>
       </c>
     </row>
@@ -5105,23 +7221,23 @@
         <v>121.279999</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.1202572977794778E-3</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.7457549391022954E-5</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>170</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.7190531077428917E-4</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.4391516689070866E-9</v>
       </c>
     </row>
@@ -5133,23 +7249,23 @@
         <v>119.860001</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.177751027557288E-2</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.3870974829122479E-4</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>169</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.8095295870977811E-4</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.5099939355185714E-8</v>
       </c>
     </row>
@@ -5161,23 +7277,23 @@
         <v>120.08000199999999</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.8338006076631828E-3</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.3628246686658585E-6</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>168</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.9047679864187168E-4</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.405400772813856E-10</v>
       </c>
     </row>
@@ -5189,23 +7305,23 @@
         <v>120.290001</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.7472983384550275E-3</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.0530514835676996E-6</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>167</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.0050189330723332E-4</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.1214260281978128E-10</v>
       </c>
     </row>
@@ -5217,23 +7333,23 @@
         <v>119.029999</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0529948540679202E-2</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.1087981626935206E-4</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>166</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.1105462453392982E-4</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.3401697991119223E-8</v>
       </c>
     </row>
@@ -5245,23 +7361,23 @@
         <v>119.510002</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.0245128352456618E-3</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.6196703561057076E-5</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>165</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.2216276266729456E-4</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.5983044092276477E-9</v>
       </c>
     </row>
@@ -5273,23 +7389,23 @@
         <v>119.519997</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.3629670314445967E-5</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.9939217569029251E-9</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>164</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.338555396497837E-4</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.6355673467288969E-12</v>
       </c>
     </row>
@@ -5301,23 +7417,23 @@
         <v>119.589996</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.8549624899764587E-4</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.4280585759031334E-7</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>163</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.4616372594714081E-4</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>8.4386367180936475E-11</v>
       </c>
     </row>
@@ -5329,23 +7445,23 @@
         <v>119.400002</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.5899748241824869E-3</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.5280199415341301E-6</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>162</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.5911971152330608E-4</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.5505979797548884E-10</v>
       </c>
     </row>
@@ -5357,23 +7473,23 @@
         <v>118.839996</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.7012007732147795E-3</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.210128871007524E-5</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>161</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.7275759107716431E-4</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.0282942682610507E-9</v>
       </c>
     </row>
@@ -5385,23 +7501,23 @@
         <v>118.94000200000001</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.4116415794284233E-4</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.0755714060769105E-7</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>160</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.871132537654361E-4</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.0314903286484235E-10</v>
       </c>
     </row>
@@ -5413,23 +7529,23 @@
         <v>117.889999</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.8672032720960615E-3</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.8627293868671101E-5</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>159</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.0222447764782746E-4</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.3763092818321351E-8</v>
       </c>
     </row>
@@ -5441,23 +7557,23 @@
         <v>117.650002</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0378456486060833E-3</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.152814887542748E-6</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>158</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.181310291029763E-4</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.3211392738481353E-9</v>
       </c>
     </row>
@@ -5469,23 +7585,23 @@
         <v>116.55999799999999</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.3079874445421238E-3</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>8.6638630267753819E-5</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>157</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.348747674768171E-4</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.9013091165423988E-8</v>
       </c>
     </row>
@@ -5497,23 +7613,23 @@
         <v>116.160004</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.4375592166571173E-3</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.1816813368024295E-5</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>156</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.5249975523875493E-4</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.1654238199306115E-9</v>
       </c>
     </row>
@@ -5525,23 +7641,23 @@
         <v>117.360001</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.0277556843769827E-2</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.0562817467692001E-4</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>155</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.7105237393553149E-4</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.9193584968348162E-8</v>
       </c>
     </row>
@@ -5553,23 +7669,23 @@
         <v>116.379997</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.3854689046183647E-3</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.0316088750321513E-5</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>154</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.9058144624792786E-4</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.7464159638598228E-8</v>
       </c>
     </row>
@@ -5581,23 +7697,23 @@
         <v>115.879997</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.3055264385997872E-3</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.8537557913481766E-5</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>153</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.1113836447150307E-4</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>7.6215012418446619E-9</v>
       </c>
     </row>
@@ -5609,23 +7725,23 @@
         <v>116.18</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.5855655520877654E-3</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.685149224142911E-6</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>152</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.3277722575947689E-4</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.8931803350126882E-9</v>
       </c>
     </row>
@@ -5637,23 +7753,23 @@
         <v>115.279999</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-7.776769547651453E-3</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0478144597278988E-5</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>151</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.5555497448365983E-4</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.7551119618832518E-8</v>
       </c>
     </row>
@@ -5665,23 +7781,23 @@
         <v>115.900002</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.363824585226158E-3</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.8770614181076566E-5</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>150</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.7953155208806309E-4</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.3796417272778484E-8</v>
       </c>
     </row>
@@ -5693,23 +7809,23 @@
         <v>114.959999</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.1435345298696594E-3</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.6317154639179454E-5</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>149</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.0477005482953998E-4</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.3474913783357698E-8</v>
       </c>
     </row>
@@ -5721,23 +7837,23 @@
         <v>115.589996</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.4651796290140437E-3</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.9868188377390078E-5</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>148</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.3133689982056841E-4</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.5870070615699178E-8</v>
       </c>
     </row>
@@ -5749,23 +7865,23 @@
         <v>116.099998</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.4024587762110812E-3</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.9381643276237971E-5</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>147</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.5930199981112474E-4</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.0840191844025737E-8</v>
       </c>
     </row>
@@ -5777,23 +7893,23 @@
         <v>115.80999799999999</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.5009715506965117E-3</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.2548586973933143E-6</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>146</v>
       </c>
       <c r="F109" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.887389471696049E-4</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.6824789241979863E-9</v>
       </c>
     </row>
@@ -5805,23 +7921,23 @@
         <v>114.370003</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.2512066902840346E-2</v>
       </c>
       <c r="D110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.5655181818115282E-4</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>145</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.1972520754695261E-4</v>
       </c>
       <c r="G110" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>9.7019108014167723E-8</v>
       </c>
     </row>
@@ -5833,23 +7949,23 @@
         <v>115.860001</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.2943741275804639E-2</v>
       </c>
       <c r="D111" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.6754043821496872E-4</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>144</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.5234232373363428E-4</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.0929371878450407E-7</v>
       </c>
     </row>
@@ -5861,23 +7977,23 @@
         <v>116.599998</v>
       </c>
       <c r="C112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.3666824641486824E-3</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.0534645599298341E-5</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>143</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.8667613024593079E-4</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.7834173581016432E-8</v>
       </c>
     </row>
@@ -5889,23 +8005,23 @@
         <v>115.889999</v>
       </c>
       <c r="C113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-6.1078000463058177E-3</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.7305221405653349E-5</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>142</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.2281697920624293E-4</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.6964847445054425E-8</v>
       </c>
     </row>
@@ -5917,23 +8033,23 @@
         <v>116.58000199999999</v>
       </c>
       <c r="C114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.9362930555774572E-3</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.5239575241697144E-5</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>141</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.608599781118347E-4</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.6812382447068041E-8</v>
       </c>
     </row>
@@ -5945,23 +8061,23 @@
         <v>114.489998</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.8090284306058552E-2</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.2725838627402831E-4</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>140</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.0090524011772082E-4</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.6210295643933849E-7</v>
       </c>
     </row>
@@ -5973,23 +8089,23 @@
         <v>114.269997</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.9234225619341302E-3</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.6995543517572532E-6</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>139</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.4305814749233772E-4</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.1189394383396864E-9</v>
       </c>
     </row>
@@ -6001,23 +8117,23 @@
         <v>115.269997</v>
       </c>
       <c r="C117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.7131336820563364E-3</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.5918698561384615E-5</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>138</v>
       </c>
       <c r="F117" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.8742962893930278E-4</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.7372502493884329E-8</v>
       </c>
     </row>
@@ -6029,23 +8145,23 @@
         <v>116.80999799999999</v>
       </c>
       <c r="C118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.3271489458714279E-2</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.7613243245276423E-4</v>
       </c>
       <c r="E118" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>137</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.3413645151505561E-4</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.645317254481404E-7</v>
       </c>
     </row>
@@ -6057,23 +8173,23 @@
         <v>116.30999799999999</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.2896428902616307E-3</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.8401036125972157E-5</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>136</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.8330152791058483E-4</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.809376693780629E-8</v>
       </c>
     </row>
@@ -6085,23 +8201,23 @@
         <v>116.449997</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.2029474126988406E-3</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.4470824777188347E-6</v>
       </c>
       <c r="E120" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>135</v>
       </c>
       <c r="F120" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.0350542399058787E-3</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.497808854056384E-9</v>
       </c>
     </row>
@@ -6113,23 +8229,23 @@
         <v>115.25</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.035828869146207E-2</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.0729414461567101E-4</v>
       </c>
       <c r="E121" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>134</v>
       </c>
       <c r="F121" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.0895307788482936E-3</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.1690027294897348E-7</v>
       </c>
     </row>
@@ -6141,23 +8257,23 @@
         <v>115.400002</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.3006895282635757E-3</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.6917932489345231E-6</v>
       </c>
       <c r="E122" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="F122" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.1468745040508353E-3</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.9402745433283328E-9</v>
       </c>
     </row>
@@ -6169,23 +8285,23 @@
         <v>115.849998</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.8918622096604377E-3</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.5146591458983024E-5</v>
       </c>
       <c r="E123" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>132</v>
       </c>
       <c r="F123" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.2072363200535108E-3</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.8285515334296604E-8</v>
       </c>
     </row>
@@ -6197,23 +8313,23 @@
         <v>117.44000200000001</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.3631348281496081E-2</v>
       </c>
       <c r="D124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.8581365597144617E-4</v>
       </c>
       <c r="E124" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>131</v>
       </c>
       <c r="F124" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.2707750737405378E-3</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.3612736236911342E-7</v>
       </c>
     </row>
@@ -6225,23 +8341,23 @@
         <v>117.889999</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.8243959253743357E-3</v>
       </c>
       <c r="D125" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1.4626004194019821E-5</v>
       </c>
       <c r="E125" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>130</v>
       </c>
       <c r="F125" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.3376579723584608E-3</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.9564591113878897E-8</v>
       </c>
     </row>
@@ -6253,23 +8369,23 @@
         <v>119.629997</v>
       </c>
       <c r="C126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.4651643283938335E-2</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.1467065091977533E-4</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>129</v>
       </c>
       <c r="F126" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.4080610235352219E-3</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>3.0226937645707119E-7</v>
       </c>
     </row>
@@ -6281,23 +8397,23 @@
         <v>117.68</v>
       </c>
       <c r="C127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.6434544812308702E-2</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.7009426318778284E-4</v>
       </c>
       <c r="E127" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>128</v>
       </c>
       <c r="F127" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.4821694984581285E-3</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.0032547860545385E-7</v>
       </c>
     </row>
@@ -6309,23 +8425,23 @@
         <v>117.69000200000001</v>
       </c>
       <c r="C128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.4989590185821854E-5</v>
       </c>
       <c r="D128" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.2232304399539463E-9</v>
       </c>
       <c r="E128" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="F128" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.5601784194296088E-3</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.1269528250983186E-11</v>
       </c>
     </row>
@@ -6337,23 +8453,23 @@
         <v>118.58000199999999</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.5337892621039695E-3</v>
       </c>
       <c r="D129" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.6757980645793077E-5</v>
       </c>
       <c r="E129" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>126</v>
       </c>
       <c r="F129" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.6422930730837987E-3</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>9.3213238456810287E-8</v>
       </c>
     </row>
@@ -6365,23 +8481,23 @@
         <v>116.32</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.9242841360262886E-2</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.7028694361624401E-4</v>
       </c>
       <c r="E130" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>125</v>
       </c>
       <c r="F130" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.7287295506145249E-3</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.4012598163613544E-7</v>
       </c>
     </row>
@@ -6393,23 +8509,23 @@
         <v>114.389999</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.6731359989650061E-2</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2.7993840710326291E-4</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>124</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.8197153164363424E-3</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.0940820706459967E-7</v>
       </c>
     </row>
@@ -6421,23 +8537,23 @@
         <v>113.779999</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" ref="C132:C195" si="10">+LN(B132/B131)</f>
+        <f t="shared" ref="C132:C195" si="23">+LN(B132/B131)</f>
         <v>-5.346903261948666E-3</v>
       </c>
       <c r="D132" s="4">
-        <f t="shared" ref="D132:D195" si="11">+C132^2</f>
+        <f t="shared" ref="D132:D195" si="24">+C132^2</f>
         <v>2.8589374492637283E-5</v>
       </c>
       <c r="E132" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>123</v>
       </c>
       <c r="F132" s="4">
-        <f t="shared" ref="F132:F195" si="12">+$K$6^(E132-1)</f>
+        <f t="shared" ref="F132:F195" si="25">+$K$6^(E132-1)</f>
         <v>1.9154898067750973E-3</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" ref="G132:G195" si="13">+F132*D132</f>
+        <f t="shared" ref="G132:G195" si="26">+F132*D132</f>
         <v>5.4762655422722683E-8</v>
       </c>
     </row>
@@ -6449,23 +8565,23 @@
         <v>110.400002</v>
       </c>
       <c r="C133" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.0156598574673718E-2</v>
       </c>
       <c r="D133" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>9.0942043759401298E-4</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" ref="E133:E196" si="14">+E132-1</f>
+        <f t="shared" ref="E133:E196" si="27">+E132-1</f>
         <v>122</v>
       </c>
       <c r="F133" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.0163050597632598E-3</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.8336690297729261E-6</v>
       </c>
     </row>
@@ -6477,23 +8593,23 @@
         <v>107.68</v>
       </c>
       <c r="C134" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.494628606251904E-2</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.2231718831303167E-4</v>
       </c>
       <c r="E134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>121</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.1224263786981689E-3</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3208224163928542E-6</v>
       </c>
     </row>
@@ -6505,23 +8621,23 @@
         <v>115.879997</v>
       </c>
       <c r="C135" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>7.339128111588103E-2</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.3862801438302752E-3</v>
       </c>
       <c r="E135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>120</v>
       </c>
       <c r="F135" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.2341330302085988E-3</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.203366637928794E-5</v>
       </c>
     </row>
@@ -6533,23 +8649,23 @@
         <v>112.910004</v>
       </c>
       <c r="C136" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.5964070393422769E-2</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.7413295139461275E-4</v>
       </c>
       <c r="E136" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>119</v>
       </c>
       <c r="F136" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.3517189791669455E-3</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.5853712562765387E-6</v>
       </c>
     </row>
@@ -6561,23 +8677,23 @@
         <v>116.769997</v>
       </c>
       <c r="C137" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.3615085777216884E-2</v>
       </c>
       <c r="D137" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.1299739918096488E-3</v>
       </c>
       <c r="E137" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>118</v>
       </c>
       <c r="F137" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.4754936622809957E-3</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.7972434552671435E-6</v>
       </c>
     </row>
@@ -6589,23 +8705,23 @@
         <v>115.91999800000001</v>
       </c>
       <c r="C138" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-7.3058816369441426E-3</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.3375906493037626E-5</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>117</v>
       </c>
       <c r="F138" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.605782802401048E-3</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3908601920212387E-7</v>
       </c>
     </row>
@@ -6617,23 +8733,23 @@
         <v>117.230003</v>
       </c>
       <c r="C139" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.1237561915306993E-2</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.2628279780035819E-4</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>116</v>
       </c>
       <c r="F139" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.7429292656853134E-3</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.463847818392234E-7</v>
       </c>
     </row>
@@ -6645,23 +8761,23 @@
         <v>117.160004</v>
       </c>
       <c r="C140" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-5.9728657357837635E-4</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.5675125097699718E-7</v>
       </c>
       <c r="E140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.8872939638792776E-3</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.0300457335522653E-9</v>
       </c>
     </row>
@@ -6673,23 +8789,23 @@
         <v>119.790001</v>
       </c>
       <c r="C141" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.2199661990304466E-2</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.9282499248376889E-4</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>114</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.0392568040834502E-3</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.4978217116286697E-6</v>
       </c>
     </row>
@@ -6701,23 +8817,23 @@
         <v>114.43</v>
       </c>
       <c r="C142" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-4.5776935761558404E-2</v>
       </c>
       <c r="D142" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.0955278477178449E-3</v>
       </c>
       <c r="E142" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>113</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.1992176885088947E-3</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.7040497571819034E-6</v>
       </c>
     </row>
@@ -6729,23 +8845,23 @@
         <v>104.050003</v>
       </c>
       <c r="C143" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-9.5091700657688197E-2</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>9.0424315339713776E-3</v>
       </c>
       <c r="E143" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.3675975668514685E-3</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.0451270432223002E-5</v>
       </c>
     </row>
@@ -6757,23 +8873,23 @@
         <v>114.099998</v>
       </c>
       <c r="C144" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>9.2203657667610739E-2</v>
       </c>
       <c r="D144" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.5015144872859529E-3</v>
       </c>
       <c r="E144" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>111</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.5448395440541773E-3</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.0136504738880721E-5</v>
       </c>
     </row>
@@ -6785,23 +8901,23 @@
         <v>106.760002</v>
       </c>
       <c r="C145" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-6.6491896069614739E-2</v>
       </c>
       <c r="D145" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.4211722429324477E-3</v>
       </c>
       <c r="E145" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
       <c r="F145" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.731410046372818E-3</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.6497206524022779E-5</v>
       </c>
     </row>
@@ -6813,23 +8929,23 @@
         <v>119.260002</v>
       </c>
       <c r="C146" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0.1107226571951106</v>
       </c>
       <c r="D146" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.2259506816345977E-2</v>
       </c>
       <c r="E146" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>109</v>
       </c>
       <c r="F146" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.9278000488134927E-3</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>4.8152891471673075E-5</v>
       </c>
     </row>
@@ -6841,23 +8957,23 @@
         <v>122.58000199999999</v>
       </c>
       <c r="C147" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.7457893908418868E-2</v>
       </c>
       <c r="D147" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.5393593788598595E-4</v>
       </c>
       <c r="E147" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>108</v>
       </c>
       <c r="F147" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.1345263671720978E-3</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.1171680143482337E-6</v>
       </c>
     </row>
@@ -6869,23 +8985,23 @@
         <v>119.449997</v>
       </c>
       <c r="C148" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.5866045716753563E-2</v>
       </c>
       <c r="D148" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.6905232102118539E-4</v>
       </c>
       <c r="E148" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="F148" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.3521330180758934E-3</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.9118046971366131E-6</v>
       </c>
     </row>
@@ -6897,23 +9013,23 @@
         <v>113.970001</v>
       </c>
       <c r="C149" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-4.6962584014824657E-2</v>
       </c>
       <c r="D149" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.2054842973494642E-3</v>
       </c>
       <c r="E149" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="F149" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.5811926506062021E-3</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.010374845404475E-5</v>
       </c>
     </row>
@@ -6925,23 +9041,23 @@
         <v>114.279999</v>
       </c>
       <c r="C150" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.7163039702521167E-3</v>
       </c>
       <c r="D150" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.3783072588074121E-6</v>
       </c>
       <c r="E150" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>105</v>
       </c>
       <c r="F150" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.8223080532696872E-3</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.5580470513645176E-8</v>
       </c>
     </row>
@@ -6953,23 +9069,23 @@
         <v>115.029999</v>
       </c>
       <c r="C151" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>6.5413866023996741E-3</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.2789738682053953E-5</v>
       </c>
       <c r="E151" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>104</v>
       </c>
       <c r="F151" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.0761137402838812E-3</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.1720558046713076E-7</v>
       </c>
     </row>
@@ -6981,23 +9097,23 @@
         <v>109.400002</v>
       </c>
       <c r="C152" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-5.0182046945118255E-2</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.5182378356020524E-3</v>
       </c>
       <c r="E152" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>103</v>
       </c>
       <c r="F152" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.3432776213514534E-3</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3455643872212966E-5</v>
       </c>
     </row>
@@ -7009,23 +9125,23 @@
         <v>109.82</v>
       </c>
       <c r="C153" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.8317535813102185E-3</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.4682335507883685E-5</v>
       </c>
       <c r="E153" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>102</v>
       </c>
       <c r="F153" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.6245027593173199E-3</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.2580836577314447E-8</v>
       </c>
     </row>
@@ -7037,23 +9153,23 @@
         <v>109.58000199999999</v>
       </c>
       <c r="C154" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.1877674889513262E-3</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.7863265857123916E-6</v>
       </c>
       <c r="E154" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>101</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.9205292203340209E-3</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.8337586408771783E-8</v>
       </c>
     </row>
@@ -7065,23 +9181,23 @@
         <v>115.19000200000001</v>
       </c>
       <c r="C155" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>4.9928061939258112E-2</v>
       </c>
       <c r="D155" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.4928113690103944E-3</v>
       </c>
       <c r="E155" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="F155" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.2321360214042318E-3</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.5535539527375677E-5</v>
       </c>
     </row>
@@ -7093,23 +9209,23 @@
         <v>113.620003</v>
       </c>
       <c r="C156" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.3723382768250653E-2</v>
       </c>
       <c r="D156" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.8833123460391897E-4</v>
       </c>
       <c r="E156" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>99</v>
       </c>
       <c r="F156" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.5601431804255088E-3</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.2354798643480156E-6</v>
       </c>
     </row>
@@ -7121,23 +9237,23 @@
         <v>114.139999</v>
       </c>
       <c r="C157" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>4.5661828146088988E-3</v>
       </c>
       <c r="D157" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.0850025496429646E-5</v>
       </c>
       <c r="E157" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>98</v>
       </c>
       <c r="F157" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.9054138741321139E-3</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.4397805533905359E-7</v>
       </c>
     </row>
@@ -7149,23 +9265,23 @@
         <v>118.650002</v>
       </c>
       <c r="C158" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.8752243390680903E-2</v>
       </c>
       <c r="D158" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.5017363678105718E-3</v>
       </c>
       <c r="E158" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>97</v>
       </c>
       <c r="F158" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>7.268856709612752E-3</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.0915906473229359E-5</v>
       </c>
     </row>
@@ -7177,23 +9293,23 @@
         <v>119.480003</v>
       </c>
       <c r="C159" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>6.9710187186410883E-3</v>
       </c>
       <c r="D159" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.8595101975644439E-5</v>
       </c>
       <c r="E159" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>96</v>
       </c>
       <c r="F159" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>7.6514281153818439E-3</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.7182192952629366E-7</v>
       </c>
     </row>
@@ -7205,23 +9321,23 @@
         <v>126.07</v>
       </c>
       <c r="C160" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>5.3688289786464498E-2</v>
       </c>
       <c r="D160" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.8824324601953882E-3</v>
       </c>
       <c r="E160" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>95</v>
       </c>
       <c r="F160" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.054134858296676E-3</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.3215499754345522E-5</v>
       </c>
     </row>
@@ -7233,23 +9349,23 @@
         <v>121.989998</v>
       </c>
       <c r="C161" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.2898250477318404E-2</v>
       </c>
       <c r="D161" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.0822948844683806E-3</v>
       </c>
       <c r="E161" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>94</v>
       </c>
       <c r="F161" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.4780366929438702E-3</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>9.1757357431083777E-6</v>
       </c>
     </row>
@@ -7261,23 +9377,23 @@
         <v>121.839996</v>
       </c>
       <c r="C162" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.230382008894646E-3</v>
       </c>
       <c r="D162" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.5138398878116248E-6</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>93</v>
       </c>
       <c r="F162" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.9242491504672328E-3</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3509884332746305E-8</v>
       </c>
     </row>
@@ -7289,23 +9405,23 @@
         <v>121.800003</v>
       </c>
       <c r="C163" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.2829585062670041E-4</v>
       </c>
       <c r="D163" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.0777816553870879E-7</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>92</v>
       </c>
       <c r="F163" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>9.3939464741760355E-3</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.0124623181555144E-9</v>
       </c>
     </row>
@@ -7317,23 +9433,23 @@
         <v>125.300003</v>
       </c>
       <c r="C164" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.8330505938221937E-2</v>
       </c>
       <c r="D164" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.0261756671562846E-4</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>91</v>
       </c>
       <c r="F164" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>9.8883647096589845E-3</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>7.9365752220631866E-6</v>
       </c>
     </row>
@@ -7345,23 +9461,23 @@
         <v>129</v>
       </c>
       <c r="C165" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.9101518517111812E-2</v>
       </c>
       <c r="D165" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.4689838000180163E-4</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="F165" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.0408804957535772E-2</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.8152000562917665E-6</v>
       </c>
     </row>
@@ -7373,23 +9489,23 @@
         <v>128.759995</v>
       </c>
       <c r="C166" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.8622367630007682E-3</v>
       </c>
       <c r="D166" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.4679257614715793E-6</v>
       </c>
       <c r="E166" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>89</v>
       </c>
       <c r="F166" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.0956636797406077E-2</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.7996803008811994E-8</v>
       </c>
     </row>
@@ -7401,23 +9517,23 @@
         <v>132.33000200000001</v>
       </c>
       <c r="C167" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.7348650300017454E-2</v>
       </c>
       <c r="D167" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.4794867323264478E-4</v>
       </c>
       <c r="E167" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>88</v>
       </c>
       <c r="F167" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.1533301892006397E-2</v>
       </c>
       <c r="G167" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.6263178481177361E-6</v>
       </c>
     </row>
@@ -7429,23 +9545,23 @@
         <v>132.11999499999999</v>
       </c>
       <c r="C168" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.5882552204845889E-3</v>
       </c>
       <c r="D168" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.5225546453965502E-6</v>
       </c>
       <c r="E168" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>87</v>
       </c>
       <c r="F168" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.2140317781059364E-2</v>
       </c>
       <c r="G168" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.0624615015201638E-8</v>
       </c>
     </row>
@@ -7457,23 +9573,23 @@
         <v>129.85000600000001</v>
       </c>
       <c r="C169" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.7330578362285687E-2</v>
       </c>
       <c r="D169" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.0034894637132482E-4</v>
       </c>
       <c r="E169" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>86</v>
       </c>
       <c r="F169" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.2779281874799332E-2</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.8382438464781475E-6</v>
       </c>
     </row>
@@ -7485,23 +9601,23 @@
         <v>129.21000699999999</v>
       </c>
       <c r="C170" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-4.940942406417773E-3</v>
       </c>
       <c r="D170" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.4412911863537453E-5</v>
       </c>
       <c r="E170" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="F170" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.3451875657683507E-2</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.2839945483029238E-7</v>
       </c>
     </row>
@@ -7513,23 +9629,23 @@
         <v>131.58999600000001</v>
       </c>
       <c r="C171" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.8251955855101532E-2</v>
       </c>
       <c r="D171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.3313389253657508E-4</v>
       </c>
       <c r="E171" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>84</v>
       </c>
       <c r="F171" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.415986911335106E-2</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>4.7171323155390608E-6</v>
       </c>
     </row>
@@ -7541,23 +9657,23 @@
         <v>128.529999</v>
       </c>
       <c r="C172" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.3528665422846498E-2</v>
       </c>
       <c r="D172" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.5359809658025235E-4</v>
       </c>
       <c r="E172" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>83</v>
       </c>
       <c r="F172" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.49051253824748E-2</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.2514490410280544E-6</v>
       </c>
     </row>
@@ -7569,23 +9685,23 @@
         <v>129.44000199999999</v>
       </c>
       <c r="C173" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>7.0551364196000275E-3</v>
       </c>
       <c r="D173" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.9774949899166698E-5</v>
       </c>
       <c r="E173" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>82</v>
       </c>
       <c r="F173" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.5689605665762947E-2</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>7.8094933595103264E-7</v>
       </c>
     </row>
@@ -7597,23 +9713,23 @@
         <v>128.300003</v>
       </c>
       <c r="C174" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-8.8461737570684172E-3</v>
       </c>
       <c r="D174" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.8254790140245957E-5</v>
       </c>
       <c r="E174" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>81</v>
       </c>
       <c r="F174" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.6515374385013628E-2</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.292407156586835E-6</v>
       </c>
     </row>
@@ -7625,23 +9741,23 @@
         <v>128</v>
       </c>
       <c r="C175" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.3410310846700942E-3</v>
       </c>
       <c r="D175" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.4804265393916374E-6</v>
       </c>
       <c r="E175" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>80</v>
       </c>
       <c r="F175" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.7384604615803819E-2</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>9.5275048513281611E-8</v>
       </c>
     </row>
@@ -7653,23 +9769,23 @@
         <v>123.599998</v>
       </c>
       <c r="C176" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.4979735077256678E-2</v>
       </c>
       <c r="D176" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.2235818660750613E-3</v>
       </c>
       <c r="E176" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>79</v>
       </c>
       <c r="F176" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.8299583806109285E-2</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.2391038901876173E-5</v>
       </c>
     </row>
@@ -7681,23 +9797,23 @@
         <v>121.550003</v>
       </c>
       <c r="C177" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.6724803399027245E-2</v>
       </c>
       <c r="D177" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.7971904873611329E-4</v>
       </c>
       <c r="E177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>78</v>
       </c>
       <c r="F177" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.926271979590451E-2</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>5.3881496573807076E-6</v>
       </c>
     </row>
@@ -7709,23 +9825,23 @@
         <v>122.91999800000001</v>
       </c>
       <c r="C178" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.1207995548205459E-2</v>
       </c>
       <c r="D178" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.2561916420859338E-4</v>
       </c>
       <c r="E178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>77</v>
       </c>
       <c r="F178" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.0276547153583693E-2</v>
       </c>
       <c r="G178" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.5471229064693168E-6</v>
       </c>
     </row>
@@ -7737,23 +9853,23 @@
         <v>123.699997</v>
       </c>
       <c r="C179" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>6.3255341546800316E-3</v>
       </c>
       <c r="D179" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.0012382342023624E-5</v>
       </c>
       <c r="E179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>76</v>
       </c>
       <c r="F179" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.1343733845877573E-2</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.5401363924764377E-7</v>
       </c>
     </row>
@@ -7765,23 +9881,23 @@
         <v>124.730003</v>
       </c>
       <c r="C180" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>8.2921700433508418E-3</v>
       </c>
       <c r="D180" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.8760084027845106E-5</v>
       </c>
       <c r="E180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="F180" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.2467088258818501E-2</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.5448388765373723E-6</v>
       </c>
     </row>
@@ -7793,23 +9909,23 @@
         <v>123.300003</v>
       </c>
       <c r="C181" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.153099068837107E-2</v>
       </c>
       <c r="D181" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.3296374625530033E-4</v>
       </c>
       <c r="E181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>74</v>
       </c>
       <c r="F181" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.364956658823E-2</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.1445349708852423E-6</v>
       </c>
     </row>
@@ -7821,23 +9937,23 @@
         <v>121.889999</v>
       </c>
       <c r="C182" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.1501444037572001E-2</v>
       </c>
       <c r="D182" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.3228321494940053E-4</v>
       </c>
       <c r="E182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>73</v>
       </c>
       <c r="F182" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.4894280619189475E-2</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.293095474158937E-6</v>
       </c>
     </row>
@@ -7849,23 +9965,23 @@
         <v>122.94000200000001</v>
       </c>
       <c r="C183" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>8.5774572833350153E-3</v>
       </c>
       <c r="D183" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.3572773447436895E-5</v>
       </c>
       <c r="E183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>72</v>
       </c>
       <c r="F183" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.6204505914936286E-2</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.9279381769816275E-6</v>
       </c>
     </row>
@@ -7877,23 +9993,23 @@
         <v>123.66999800000001</v>
       </c>
       <c r="C184" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>5.9202638349332816E-3</v>
       </c>
       <c r="D184" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.5049523875218924E-5</v>
       </c>
       <c r="E184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>71</v>
       </c>
       <c r="F184" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.7583690436775037E-2</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>9.6679521653039468E-7</v>
       </c>
     </row>
@@ -7905,23 +10021,23 @@
         <v>123.779999</v>
       </c>
       <c r="C185" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>8.8907665047099698E-4</v>
       </c>
       <c r="D185" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.9045729041272735E-7</v>
       </c>
       <c r="E185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>70</v>
       </c>
       <c r="F185" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.903546361765794E-2</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>2.295129389709122E-8</v>
       </c>
     </row>
@@ -7933,23 +10049,23 @@
         <v>123.709999</v>
       </c>
       <c r="C186" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-5.6567944104661105E-4</v>
       </c>
       <c r="D186" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.1999323002280632E-7</v>
       </c>
       <c r="E186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>69</v>
       </c>
       <c r="F186" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.0563645913324146E-2</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>9.780159777077937E-9</v>
       </c>
     </row>
@@ -7961,23 +10077,23 @@
         <v>123.41999800000001</v>
       </c>
       <c r="C187" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.3469521032276211E-3</v>
       </c>
       <c r="D187" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.5081841748445541E-6</v>
       </c>
       <c r="E187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>68</v>
       </c>
       <c r="F187" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.2172258856130675E-2</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.7721072710034153E-7</v>
       </c>
     </row>
@@ -7989,23 +10105,23 @@
         <v>125.94000200000001</v>
       </c>
       <c r="C188" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>2.0212462253082906E-2</v>
       </c>
       <c r="D188" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.0854363033230131E-4</v>
       </c>
       <c r="E188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>67</v>
       </c>
       <c r="F188" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.3865535638032296E-2</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.3835548872709643E-5</v>
       </c>
     </row>
@@ -8017,23 +10133,23 @@
         <v>127.660004</v>
       </c>
       <c r="C189" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>1.3564892219965078E-2</v>
       </c>
       <c r="D189" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.840063009392691E-4</v>
       </c>
       <c r="E189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>66</v>
       </c>
       <c r="F189" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.5647932250560309E-2</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.5594441495592766E-6</v>
       </c>
     </row>
@@ -8045,23 +10161,23 @@
         <v>124.949997</v>
       </c>
       <c r="C190" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-2.1456877889782455E-2</v>
       </c>
       <c r="D190" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.6039760877703522E-4</v>
       </c>
       <c r="E190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>65</v>
       </c>
       <c r="F190" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.7524139211116116E-2</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.7276023964214445E-5</v>
       </c>
     </row>
@@ -8073,23 +10189,23 @@
         <v>125.449997</v>
       </c>
       <c r="C191" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>3.9936156271639187E-3</v>
       </c>
       <c r="D191" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.594896577752786E-5</v>
       </c>
       <c r="E191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="F191" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.9499093906438021E-2</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.2996969695713927E-7</v>
       </c>
     </row>
@@ -8101,23 +10217,23 @@
         <v>124.989998</v>
       </c>
       <c r="C192" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.6735307976708425E-3</v>
       </c>
       <c r="D192" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.3494828521436176E-5</v>
       </c>
       <c r="E192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>63</v>
       </c>
       <c r="F192" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.1577993585724227E-2</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>5.6108789370472171E-7</v>
       </c>
     </row>
@@ -8129,23 +10245,23 @@
         <v>124.33000199999999</v>
       </c>
       <c r="C193" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-5.294381049782095E-3</v>
       </c>
       <c r="D193" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.803047070029176E-5</v>
       </c>
       <c r="E193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>62</v>
       </c>
       <c r="F193" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.3766309037604451E-2</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.226790243138486E-6</v>
       </c>
     </row>
@@ -8157,23 +10273,23 @@
         <v>123.860001</v>
       </c>
       <c r="C194" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-3.7874334675218587E-3</v>
       </c>
       <c r="D194" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.4344652270904651E-5</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>61</v>
       </c>
       <c r="F194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.606979898695205E-2</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.6085524665830253E-7</v>
       </c>
     </row>
@@ -8185,23 +10301,23 @@
         <v>122.480003</v>
       </c>
       <c r="C195" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>-1.120412774032342E-2</v>
       </c>
       <c r="D195" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.2553247842148478E-4</v>
       </c>
       <c r="E195" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>60</v>
       </c>
       <c r="F195" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.8494525249423222E-2</v>
       </c>
       <c r="G195" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>6.0876379444333695E-6</v>
       </c>
     </row>
@@ -8213,23 +10329,23 @@
         <v>123.69000200000001</v>
       </c>
       <c r="C196" s="3">
-        <f t="shared" ref="C196:C254" si="15">+LN(B196/B195)</f>
+        <f t="shared" ref="C196:C254" si="28">+LN(B196/B195)</f>
         <v>9.8306757131513735E-3</v>
       </c>
       <c r="D196" s="4">
-        <f t="shared" ref="D196:D254" si="16">+C196^2</f>
+        <f t="shared" ref="D196:D254" si="29">+C196^2</f>
         <v>9.6642184977144266E-5</v>
       </c>
       <c r="E196" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>59</v>
       </c>
       <c r="F196" s="4">
-        <f t="shared" ref="F196:F254" si="17">+$K$6^(E196-1)</f>
+        <f t="shared" ref="F196:F254" si="30">+$K$6^(E196-1)</f>
         <v>5.1046868683603391E-2</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" ref="G196:G254" si="18">+F196*D196</f>
+        <f t="shared" ref="G196:G254" si="31">+F196*D196</f>
         <v>4.9332809258247916E-6</v>
       </c>
     </row>
@@ -8241,23 +10357,23 @@
         <v>124.05999799999999</v>
       </c>
       <c r="C197" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.9868518673653857E-3</v>
       </c>
       <c r="D197" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>8.9212840775840912E-6</v>
       </c>
       <c r="E197" s="2">
-        <f t="shared" ref="E197:E254" si="19">+E196-1</f>
+        <f t="shared" ref="E197:E254" si="32">+E196-1</f>
         <v>58</v>
       </c>
       <c r="F197" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.3733545982740404E-2</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.793722282079546E-7</v>
       </c>
     </row>
@@ -8269,23 +10385,23 @@
         <v>123.959999</v>
       </c>
       <c r="C198" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-8.0637857131064144E-4</v>
       </c>
       <c r="D198" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.502464002689912E-7</v>
       </c>
       <c r="E198" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>57</v>
       </c>
       <c r="F198" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.6561627350253066E-2</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.6778994577858178E-8</v>
       </c>
     </row>
@@ -8297,23 +10413,23 @@
         <v>123.94000200000001</v>
       </c>
       <c r="C199" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.6133118162725888E-4</v>
       </c>
       <c r="D199" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.6027750165247591E-8</v>
       </c>
       <c r="E199" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>56</v>
       </c>
       <c r="F199" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>5.9538555105529543E-2</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5496546374865494E-9</v>
       </c>
     </row>
@@ -8325,23 +10441,23 @@
         <v>123.470001</v>
       </c>
       <c r="C200" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-3.7993739920161003E-3</v>
       </c>
       <c r="D200" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.4435242731208358E-5</v>
       </c>
       <c r="E200" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
       <c r="F200" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>6.2672163268978454E-2</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.0468788927762469E-7</v>
       </c>
     </row>
@@ -8353,23 +10469,23 @@
         <v>122.110001</v>
       </c>
       <c r="C201" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.1075933644517708E-2</v>
       </c>
       <c r="D201" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.2267630609775931E-4</v>
       </c>
       <c r="E201" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
       <c r="F201" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>6.5970698177872072E-2</v>
       </c>
       <c r="G201" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.0930415631515261E-6</v>
       </c>
     </row>
@@ -8381,23 +10497,23 @@
         <v>121.55999799999999</v>
       </c>
       <c r="C202" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-4.514334438456267E-3</v>
       </c>
       <c r="D202" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.0379215422232261E-5</v>
       </c>
       <c r="E202" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>53</v>
       </c>
       <c r="F202" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>6.9442840187233748E-2</v>
       </c>
       <c r="G202" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.4151905997072843E-6</v>
       </c>
     </row>
@@ -8409,23 +10525,23 @@
         <v>121.239998</v>
       </c>
       <c r="C203" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-2.6359159024152566E-3</v>
       </c>
       <c r="D203" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.9480526446056364E-6</v>
       </c>
       <c r="E203" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
       <c r="F203" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>7.3097726512877631E-2</v>
       </c>
       <c r="G203" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.07886852012459E-7</v>
       </c>
     </row>
@@ -8437,23 +10553,23 @@
         <v>121.349998</v>
       </c>
       <c r="C204" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>9.0687999796134136E-4</v>
       </c>
       <c r="D204" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>8.2243133070236247E-7</v>
       </c>
       <c r="E204" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>51</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>7.6944975276713304E-2</v>
       </c>
       <c r="G204" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.3281958407687708E-8</v>
       </c>
     </row>
@@ -8465,23 +10581,23 @@
         <v>121.160004</v>
       </c>
       <c r="C205" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.5668965181255227E-3</v>
       </c>
       <c r="D205" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.4551646985138863E-6</v>
       </c>
       <c r="E205" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="F205" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.0994710817592949E-2</v>
       </c>
       <c r="G205" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.98855354765695E-7</v>
       </c>
     </row>
@@ -8493,23 +10609,23 @@
         <v>120.089996</v>
       </c>
       <c r="C206" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-8.8705908089928044E-3</v>
       </c>
       <c r="D206" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>7.8687381300587622E-5</v>
       </c>
       <c r="E206" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>49</v>
       </c>
       <c r="F206" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.5257590334308367E-2</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.708696519405016E-6</v>
       </c>
     </row>
@@ -8521,23 +10637,23 @@
         <v>117.739998</v>
       </c>
       <c r="C207" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.9762641750704801E-2</v>
       </c>
       <c r="D207" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.9056200896670054E-4</v>
       </c>
       <c r="E207" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="F207" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>8.9744831930850921E-2</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.505092185329203E-5</v>
       </c>
     </row>
@@ -8549,23 +10665,23 @@
         <v>118.08000199999999</v>
       </c>
       <c r="C208" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.8835911762970842E-3</v>
       </c>
       <c r="D208" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>8.315098072018401E-6</v>
       </c>
       <c r="E208" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>47</v>
       </c>
       <c r="F208" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>9.44682441377378E-2</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.8551271469666723E-7</v>
       </c>
     </row>
@@ -8577,23 +10693,23 @@
         <v>119.650002</v>
       </c>
       <c r="C209" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.3208453279970679E-2</v>
       </c>
       <c r="D209" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.7446323804916819E-4</v>
       </c>
       <c r="E209" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>46</v>
       </c>
       <c r="F209" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>9.9440256987092426E-2</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.7348669226409566E-5</v>
       </c>
     </row>
@@ -8605,23 +10721,23 @@
         <v>119.029999</v>
       </c>
       <c r="C210" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-5.1952772912571658E-3</v>
       </c>
       <c r="D210" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.6990906133052395E-5</v>
       </c>
       <c r="E210" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>45</v>
       </c>
       <c r="F210" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.10467395472325518</v>
       </c>
       <c r="G210" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.8252448865107571E-6</v>
       </c>
     </row>
@@ -8633,23 +10749,23 @@
         <v>117.989998</v>
       </c>
       <c r="C211" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-8.7756956173063554E-3</v>
       </c>
       <c r="D211" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>7.7012833567609971E-5</v>
       </c>
       <c r="E211" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>44</v>
       </c>
       <c r="F211" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.11018311023500546</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.4855135304900984E-6</v>
       </c>
     </row>
@@ -8661,23 +10777,23 @@
         <v>119.849998</v>
       </c>
       <c r="C212" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.5641086031628407E-2</v>
       </c>
       <c r="D212" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.4464357224880125E-4</v>
       </c>
       <c r="E212" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>43</v>
       </c>
       <c r="F212" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.11598222130000577</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.8374304936184417E-5</v>
       </c>
     </row>
@@ -8689,23 +10805,23 @@
         <v>121.68</v>
       </c>
       <c r="C213" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.5153703758170392E-2</v>
       </c>
       <c r="D213" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2963473759038747E-4</v>
       </c>
       <c r="E213" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>42</v>
       </c>
       <c r="F213" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.12208654873684816</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.8035312582502178E-5</v>
       </c>
     </row>
@@ -8717,23 +10833,23 @@
         <v>121.07</v>
       </c>
       <c r="C214" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-5.0257572313886075E-3</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.525823574885488E-5</v>
       </c>
       <c r="E214" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>41</v>
       </c>
       <c r="F214" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.12851215656510334</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.2459903471151285E-6</v>
       </c>
     </row>
@@ -8745,23 +10861,23 @@
         <v>120.300003</v>
       </c>
       <c r="C215" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-6.3802428013601054E-3</v>
       </c>
       <c r="D215" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>4.0707498204307448E-5</v>
       </c>
       <c r="E215" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="F215" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.13527595427905614</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.5067456659006545E-6</v>
       </c>
     </row>
@@ -8773,23 +10889,23 @@
         <v>119.709999</v>
       </c>
       <c r="C216" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-4.916505008531356E-3</v>
       </c>
       <c r="D216" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.4172021498913908E-5</v>
       </c>
       <c r="E216" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>39</v>
       </c>
       <c r="F216" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.14239574134637487</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.4419929211783575E-6</v>
       </c>
     </row>
@@ -8801,23 +10917,23 @@
         <v>118.32</v>
       </c>
       <c r="C217" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.1679324507213155E-2</v>
       </c>
       <c r="D217" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.364066209447898E-4</v>
       </c>
       <c r="E217" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>38</v>
       </c>
       <c r="F217" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.14989025404881567</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.0446023067355044E-5</v>
       </c>
     </row>
@@ -8829,23 +10945,23 @@
         <v>119.05999799999999</v>
       </c>
       <c r="C218" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.234732524446597E-3</v>
       </c>
       <c r="D218" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.8871889651392236E-5</v>
       </c>
       <c r="E218" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>37</v>
       </c>
       <c r="F218" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.15777921478822701</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.1331762265312743E-6</v>
       </c>
     </row>
@@ -8857,23 +10973,23 @@
         <v>119.779999</v>
       </c>
       <c r="C219" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.0291675606862164E-3</v>
       </c>
       <c r="D219" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.6350861474830981E-5</v>
       </c>
       <c r="E219" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>36</v>
       </c>
       <c r="F219" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.16608338398760736</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.0372740846046767E-6</v>
       </c>
     </row>
@@ -8885,23 +11001,23 @@
         <v>119.69000200000001</v>
       </c>
       <c r="C220" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-7.5163489256443094E-4</v>
       </c>
       <c r="D220" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.6495501172034366E-7</v>
       </c>
       <c r="E220" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
       <c r="F220" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.17482461472379726</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.8768042260287449E-8</v>
       </c>
     </row>
@@ -8913,23 +11029,23 @@
         <v>119.209999</v>
       </c>
       <c r="C221" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-4.0184482537606444E-3</v>
       </c>
       <c r="D221" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.6147926368151974E-5</v>
       </c>
       <c r="E221" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>34</v>
       </c>
       <c r="F221" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.18402591023557605</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.9716368483162265E-6</v>
       </c>
     </row>
@@ -8941,23 +11057,23 @@
         <v>118.889999</v>
       </c>
       <c r="C222" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-2.687947882035171E-3</v>
       </c>
       <c r="D222" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>7.2250638165373616E-6</v>
       </c>
       <c r="E222" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>33</v>
       </c>
       <c r="F222" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.19371148445850112</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.399577837208856E-6</v>
       </c>
     </row>
@@ -8969,23 +11085,23 @@
         <v>126.949997</v>
       </c>
       <c r="C223" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.55945970600193E-2</v>
       </c>
       <c r="D223" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>4.3026511634662928E-3</v>
       </c>
       <c r="E223" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>32</v>
       </c>
       <c r="F223" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.20390682574579064</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.7733994103384469E-4</v>
       </c>
     </row>
@@ -8997,23 +11113,23 @@
         <v>124.44000200000001</v>
       </c>
       <c r="C224" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.9969596417897483E-2</v>
       </c>
       <c r="D224" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.9878478109370399E-4</v>
       </c>
       <c r="E224" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
       <c r="F224" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.21463876394293749</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>8.5594672493207531E-5</v>
       </c>
     </row>
@@ -9025,23 +11141,23 @@
         <v>127.75</v>
       </c>
       <c r="C225" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.6251540982375039E-2</v>
       </c>
       <c r="D225" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.8914340394931619E-4</v>
       </c>
       <c r="E225" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>30</v>
       </c>
       <c r="F225" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.2259355409925658</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5570198779274704E-4</v>
       </c>
     </row>
@@ -9053,23 +11169,23 @@
         <v>130.679993</v>
       </c>
       <c r="C226" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.2676304083091511E-2</v>
       </c>
       <c r="D226" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.1421476686883268E-4</v>
       </c>
       <c r="E226" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>29</v>
       </c>
       <c r="F226" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.23782688525533241</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.2229409635671138E-4</v>
       </c>
     </row>
@@ -9081,23 +11197,23 @@
         <v>129.520004</v>
       </c>
       <c r="C227" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-8.9161929142647939E-3</v>
       </c>
       <c r="D227" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>7.9498496084385719E-5</v>
       </c>
       <c r="E227" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
       <c r="F227" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.2503440897424552</v>
       </c>
       <c r="G227" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.9901978638139681E-5</v>
       </c>
     </row>
@@ -9109,23 +11225,23 @@
         <v>132.009995</v>
       </c>
       <c r="C228" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.9042299164108486E-2</v>
       </c>
       <c r="D228" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.6260915745540674E-4</v>
       </c>
       <c r="E228" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>27</v>
       </c>
       <c r="F228" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.26352009446574232</v>
       </c>
       <c r="G228" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.5554799426792017E-5</v>
       </c>
     </row>
@@ -9137,23 +11253,23 @@
         <v>132</v>
       </c>
       <c r="C229" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-7.5716830378211143E-5</v>
       </c>
       <c r="D229" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.7330384025227981E-9</v>
       </c>
       <c r="E229" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>26</v>
       </c>
       <c r="F229" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.27738957312183399</v>
       </c>
       <c r="G229" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5902850751668799E-9</v>
       </c>
     </row>
@@ -9165,23 +11281,23 @@
         <v>132.199997</v>
       </c>
       <c r="C230" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.5139821383251893E-3</v>
       </c>
       <c r="D230" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2921419151677127E-6</v>
       </c>
       <c r="E230" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
       <c r="F230" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.29198902433877266</v>
       </c>
       <c r="G230" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>6.6928028145582626E-7</v>
       </c>
     </row>
@@ -9193,23 +11309,23 @@
         <v>131.740005</v>
       </c>
       <c r="C231" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-3.4855835586050992E-3</v>
       </c>
       <c r="D231" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.2149292744018186E-5</v>
       </c>
       <c r="E231" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
       <c r="F231" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.30735686772502385</v>
       </c>
       <c r="G231" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.73416856287579E-6</v>
       </c>
     </row>
@@ -9221,23 +11337,23 @@
         <v>131.470001</v>
       </c>
       <c r="C232" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-2.0516248512801407E-3</v>
       </c>
       <c r="D232" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>4.2091645303902596E-6</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>23</v>
       </c>
       <c r="F232" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.32353354497370929</v>
       </c>
       <c r="G232" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.361805921894759E-6</v>
       </c>
     </row>
@@ -9249,23 +11365,23 @@
         <v>132.33000200000001</v>
       </c>
       <c r="C233" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>6.5201215838780529E-3</v>
       </c>
       <c r="D233" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>4.2511985468552451E-5</v>
       </c>
       <c r="E233" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
       <c r="F233" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.34056162628811509</v>
       </c>
       <c r="G233" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.4477950907906939E-5</v>
       </c>
     </row>
@@ -9277,23 +11393,23 @@
         <v>132.66000399999999</v>
       </c>
       <c r="C234" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.4906763509895454E-3</v>
       </c>
       <c r="D234" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.2034686853785973E-6</v>
       </c>
       <c r="E234" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="F234" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.35848592240854216</v>
       </c>
       <c r="G234" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.2238561938104528E-6</v>
       </c>
     </row>
@@ -9305,23 +11421,23 @@
         <v>131.63999899999999</v>
       </c>
       <c r="C235" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-7.7185777710144449E-3</v>
       </c>
       <c r="D235" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.9576442807198319E-5</v>
       </c>
       <c r="E235" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="F235" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.37735360253530753</v>
       </c>
       <c r="G235" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.2481385319534994E-5</v>
       </c>
     </row>
@@ -9333,23 +11449,23 @@
         <v>131.240005</v>
       </c>
       <c r="C236" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-3.0431702876228487E-3</v>
       </c>
       <c r="D236" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.2608853994705317E-6</v>
       </c>
       <c r="E236" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
       <c r="F236" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.39721431845821847</v>
       </c>
       <c r="G236" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.6785562822703537E-6</v>
       </c>
     </row>
@@ -9361,23 +11477,23 @@
         <v>131.21000699999999</v>
       </c>
       <c r="C237" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-2.2859972382583191E-4</v>
       </c>
       <c r="D237" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.2257833733246624E-8</v>
       </c>
       <c r="E237" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>18</v>
       </c>
       <c r="F237" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.41812033521917735</v>
       </c>
       <c r="G237" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.1850062958373112E-8</v>
       </c>
     </row>
@@ -9389,23 +11505,23 @@
         <v>131.759995</v>
       </c>
       <c r="C238" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4.1829014543852353E-3</v>
       </c>
       <c r="D238" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.7496664577098115E-5</v>
       </c>
       <c r="E238" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
       <c r="F238" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.44012666865176564</v>
       </c>
       <c r="G238" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.7007486928355479E-6</v>
       </c>
     </row>
@@ -9417,23 +11533,23 @@
         <v>130.69000199999999</v>
       </c>
       <c r="C239" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-8.1539260092662082E-3</v>
       </c>
       <c r="D239" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>6.6486509364587957E-5</v>
       </c>
       <c r="E239" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="F239" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.46329123015975332</v>
       </c>
       <c r="G239" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.0802616712547913E-5</v>
       </c>
     </row>
@@ -9445,23 +11561,23 @@
         <v>130.11999499999999</v>
       </c>
       <c r="C240" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-4.3710587332524663E-3</v>
       </c>
       <c r="D240" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.9106154449542656E-5</v>
       </c>
       <c r="E240" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="F240" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.48767497911552976</v>
       </c>
       <c r="G240" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>9.3175934721588005E-6</v>
       </c>
     </row>
@@ -9473,23 +11589,23 @@
         <v>129.39999399999999</v>
       </c>
       <c r="C241" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-5.548727480134197E-3</v>
       </c>
       <c r="D241" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.0788376648796398E-5</v>
       </c>
       <c r="E241" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="F241" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.51334208327950503</v>
       </c>
       <c r="G241" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5804969409687208E-5</v>
       </c>
     </row>
@@ -9501,23 +11617,23 @@
         <v>129.300003</v>
       </c>
       <c r="C242" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-7.7302671927977746E-4</v>
       </c>
       <c r="D242" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.9757030872045581E-7</v>
       </c>
       <c r="E242" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="F242" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.54036008766263688</v>
       </c>
       <c r="G242" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>3.2290314440477448E-7</v>
       </c>
     </row>
@@ -9529,23 +11645,23 @@
         <v>131.63999899999999</v>
       </c>
       <c r="C243" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.7935607498996184E-2</v>
       </c>
       <c r="D243" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.2168601635804817E-4</v>
       </c>
       <c r="E243" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="F243" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.56880009227645989</v>
       </c>
       <c r="G243" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.8297503578850458E-4</v>
       </c>
     </row>
@@ -9557,23 +11673,23 @@
         <v>129.80999800000001</v>
       </c>
       <c r="C244" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.3999088980894329E-2</v>
       </c>
       <c r="D244" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.9597449229499702E-4</v>
       </c>
       <c r="E244" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="F244" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.5987369392383789</v>
       </c>
       <c r="G244" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.1733716768550179E-4</v>
       </c>
     </row>
@@ -9585,23 +11701,23 @@
         <v>129.35000600000001</v>
       </c>
       <c r="C245" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-3.5498724799574062E-3</v>
       </c>
       <c r="D245" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.2601594623958945E-5</v>
       </c>
       <c r="E245" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="F245" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.6302494097246093</v>
       </c>
       <c r="G245" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.9421475733389346E-6</v>
       </c>
     </row>
@@ -9613,23 +11729,23 @@
         <v>129.970001</v>
       </c>
       <c r="C246" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>4.781707269768184E-3</v>
       </c>
       <c r="D246" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.2864724413753901E-5</v>
       </c>
       <c r="E246" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="F246" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.66342043128906247</v>
       </c>
       <c r="G246" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.5168925331878169E-5</v>
       </c>
     </row>
@@ -9641,23 +11757,23 @@
         <v>131.88000500000001</v>
       </c>
       <c r="C247" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.4588793829203882E-2</v>
       </c>
       <c r="D247" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.1283290539101727E-4</v>
       </c>
       <c r="E247" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="F247" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.69833729609374995</v>
       </c>
       <c r="G247" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.4862915567053988E-4</v>
       </c>
     </row>
@@ -9669,23 +11785,23 @@
         <v>130.199997</v>
       </c>
       <c r="C248" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.2820749383790247E-2</v>
       </c>
       <c r="D248" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.6437161476195799E-4</v>
       </c>
       <c r="E248" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="F248" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.73509189062499991</v>
       </c>
       <c r="G248" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.2082824106045185E-4</v>
       </c>
     </row>
@@ -9697,23 +11813,23 @@
         <v>131.88999899999999</v>
       </c>
       <c r="C249" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.2896527522723408E-2</v>
       </c>
       <c r="D249" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>1.6632042214436235E-4</v>
       </c>
       <c r="E249" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="F249" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.77378093749999999</v>
       </c>
       <c r="G249" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>1.2869557217226046E-4</v>
       </c>
     </row>
@@ -9725,23 +11841,23 @@
         <v>131.85000600000001</v>
       </c>
       <c r="C250" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-3.0327595016550334E-4</v>
       </c>
       <c r="D250" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>9.1976301948788864E-8</v>
       </c>
       <c r="E250" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="F250" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.81450624999999999</v>
       </c>
       <c r="G250" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.4915272789175713E-8</v>
       </c>
     </row>
@@ -9753,23 +11869,23 @@
         <v>132.60000600000001</v>
       </c>
       <c r="C251" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>5.6721646950781985E-3</v>
       </c>
       <c r="D251" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>3.2173452328091553E-5</v>
       </c>
       <c r="E251" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="F251" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.85737499999999989</v>
       </c>
       <c r="G251" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.7584713689797492E-5</v>
       </c>
     </row>
@@ -9781,23 +11897,23 @@
         <v>135.60000600000001</v>
       </c>
       <c r="C252" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>2.2372296753451888E-2</v>
       </c>
       <c r="D252" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>5.0051966202451382E-4</v>
       </c>
       <c r="E252" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="F252" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.90249999999999997</v>
       </c>
       <c r="G252" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.5171899497712368E-4</v>
       </c>
     </row>
@@ -9809,23 +11925,23 @@
         <v>134.71000699999999</v>
       </c>
       <c r="C253" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-6.5850480801296161E-3</v>
       </c>
       <c r="D253" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>4.3362858217618746E-5</v>
       </c>
       <c r="E253" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="F253" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0.95</v>
       </c>
       <c r="G253" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>4.1194715306737805E-5</v>
       </c>
     </row>
@@ -9837,23 +11953,23 @@
         <v>132.41000399999999</v>
       </c>
       <c r="C254" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-1.7221172113088663E-2</v>
       </c>
       <c r="D254" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>2.9656876894862264E-4</v>
       </c>
       <c r="E254" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F254" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G254" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>2.9656876894862264E-4</v>
       </c>
     </row>
@@ -9873,6 +11989,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="U9:X9"/>
+  </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <drawing r:id="rId1"/>
 </worksheet>
